--- a/example/game_06_abyssal_nightfall/skill_tree.xlsx
+++ b/example/game_06_abyssal_nightfall/skill_tree.xlsx
@@ -504,7 +504,7 @@
         <v>提高命中稳定，解锁精准分支。</v>
       </c>
       <c r="K6" t="str">
-        <v>icons/skill/focal_anchor.png</v>
+        <v>ui/assets/icons/skill/focal_anchor.png</v>
       </c>
     </row>
     <row r="7">
@@ -539,7 +539,7 @@
         <v>装填更迅速并提升暴击。</v>
       </c>
       <c r="K7" t="str">
-        <v>icons/skill/rapid_siphon.png</v>
+        <v>ui/assets/icons/skill/rapid_siphon.png</v>
       </c>
     </row>
     <row r="8">
@@ -574,7 +574,7 @@
         <v>子弹穿透时获得额外伤害。</v>
       </c>
       <c r="K8" t="str">
-        <v>icons/skill/zero_point.png</v>
+        <v>ui/assets/icons/skill/zero_point.png</v>
       </c>
     </row>
     <row r="9">
@@ -609,7 +609,7 @@
         <v>持续型武器效率提升。</v>
       </c>
       <c r="K9" t="str">
-        <v>icons/skill/aether_resonance.png</v>
+        <v>ui/assets/icons/skill/aether_resonance.png</v>
       </c>
     </row>
     <row r="10">
@@ -644,7 +644,7 @@
         <v>光束蓄力更快并扩大范围。</v>
       </c>
       <c r="K10" t="str">
-        <v>icons/skill/choir_surge.png</v>
+        <v>ui/assets/icons/skill/choir_surge.png</v>
       </c>
     </row>
     <row r="11">
@@ -679,7 +679,7 @@
         <v>潮汐技能增强牵引力。</v>
       </c>
       <c r="K11" t="str">
-        <v>icons/skill/undertow.png</v>
+        <v>ui/assets/icons/skill/undertow.png</v>
       </c>
     </row>
     <row r="12">
@@ -714,7 +714,7 @@
         <v>爆裂范围扩大并追加寒霜伤害。</v>
       </c>
       <c r="K12" t="str">
-        <v>icons/skill/riptide_collapse.png</v>
+        <v>ui/assets/icons/skill/riptide_collapse.png</v>
       </c>
     </row>
     <row r="13">
@@ -749,7 +749,7 @@
         <v>短期内提高护盾与理智恢复。</v>
       </c>
       <c r="K13" t="str">
-        <v>icons/skill/ward_bastion.png</v>
+        <v>ui/assets/icons/skill/ward_bastion.png</v>
       </c>
     </row>
     <row r="14">
@@ -784,7 +784,7 @@
         <v>护盾容量增加并反射部分激光。</v>
       </c>
       <c r="K14" t="str">
-        <v>icons/skill/seraphic_shell.png</v>
+        <v>ui/assets/icons/skill/seraphic_shell.png</v>
       </c>
     </row>
   </sheetData>

--- a/example/game_06_abyssal_nightfall/skill_tree.xlsx
+++ b/example/game_06_abyssal_nightfall/skill_tree.xlsx
@@ -498,7 +498,7 @@
         <v>crit:+5|stability:+8</v>
       </c>
       <c r="I6" t="str">
-        <v>level:3</v>
+        <v/>
       </c>
       <c r="J6" t="str">
         <v>提高命中稳定，解锁精准分支。</v>
@@ -533,7 +533,7 @@
         <v>reload:-6%|crit:+4</v>
       </c>
       <c r="I7" t="str">
-        <v>level:6</v>
+        <v>level:3</v>
       </c>
       <c r="J7" t="str">
         <v>装填更迅速并提升暴击。</v>
@@ -568,7 +568,7 @@
         <v>damage:+12|weakPoint:+20%</v>
       </c>
       <c r="I8" t="str">
-        <v>level:9</v>
+        <v>level:6</v>
       </c>
       <c r="J8" t="str">
         <v>子弹穿透时获得额外伤害。</v>
@@ -603,7 +603,7 @@
         <v>beamDamage:+6|sanityDrain:-2</v>
       </c>
       <c r="I9" t="str">
-        <v>level:4</v>
+        <v/>
       </c>
       <c r="J9" t="str">
         <v>持续型武器效率提升。</v>
@@ -638,7 +638,7 @@
         <v>beamRamp:+4/s|radius:+0.8</v>
       </c>
       <c r="I10" t="str">
-        <v>level:7</v>
+        <v>level:4</v>
       </c>
       <c r="J10" t="str">
         <v>光束蓄力更快并扩大范围。</v>
@@ -673,7 +673,7 @@
         <v>pullStrength:+18|frostDamage:+10</v>
       </c>
       <c r="I11" t="str">
-        <v>level:5</v>
+        <v/>
       </c>
       <c r="J11" t="str">
         <v>潮汐技能增强牵引力。</v>
@@ -708,7 +708,7 @@
         <v>frostShatter:+22|radius:+1.2</v>
       </c>
       <c r="I12" t="str">
-        <v>level:8</v>
+        <v>level:5</v>
       </c>
       <c r="J12" t="str">
         <v>爆裂范围扩大并追加寒霜伤害。</v>
@@ -743,7 +743,7 @@
         <v>shield:+40|sanityRegen:+3</v>
       </c>
       <c r="I13" t="str">
-        <v>level:4</v>
+        <v/>
       </c>
       <c r="J13" t="str">
         <v>短期内提高护盾与理智恢复。</v>
@@ -778,7 +778,7 @@
         <v>shield:+60|beamReflect:15%</v>
       </c>
       <c r="I14" t="str">
-        <v>level:8</v>
+        <v>level:4</v>
       </c>
       <c r="J14" t="str">
         <v>护盾容量增加并反射部分激光。</v>

--- a/example/game_06_abyssal_nightfall/skill_tree.xlsx
+++ b/example/game_06_abyssal_nightfall/skill_tree.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:K14"/>
+  <dimension ref="A4:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -483,10 +483,10 @@
         <v>0001</v>
       </c>
       <c r="D6" t="str">
-        <v>Focal Anchor</v>
+        <v>Heavy Rounds</v>
       </c>
       <c r="E6" t="str">
-        <v>PRECISION</v>
+        <v>OFFENSE</v>
       </c>
       <c r="F6" t="str">
         <v>1</v>
@@ -495,16 +495,16 @@
         <v/>
       </c>
       <c r="H6" t="str">
-        <v>crit:+5|stability:+8</v>
+        <v>damage:+8</v>
       </c>
       <c r="I6" t="str">
         <v/>
       </c>
       <c r="J6" t="str">
-        <v>提高命中稳定，解锁精准分支。</v>
+        <v>子弹伤害提升</v>
       </c>
       <c r="K6" t="str">
-        <v>ui/assets/icons/skill/focal_anchor.png</v>
+        <v>ui/assets/icons/skill/heavy_rounds.png</v>
       </c>
     </row>
     <row r="7">
@@ -518,28 +518,28 @@
         <v>0002</v>
       </c>
       <c r="D7" t="str">
-        <v>Rapid Siphon</v>
+        <v>Critical Strike</v>
       </c>
       <c r="E7" t="str">
-        <v>PRECISION</v>
+        <v>OFFENSE</v>
       </c>
       <c r="F7" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" t="str">
-        <v>skill:70010001</v>
+        <v/>
       </c>
       <c r="H7" t="str">
-        <v>reload:-6%|crit:+4</v>
+        <v>crit:+6</v>
       </c>
       <c r="I7" t="str">
-        <v>level:3</v>
+        <v/>
       </c>
       <c r="J7" t="str">
-        <v>装填更迅速并提升暴击。</v>
+        <v>暴击率提升</v>
       </c>
       <c r="K7" t="str">
-        <v>ui/assets/icons/skill/rapid_siphon.png</v>
+        <v>ui/assets/icons/skill/critical_strike.png</v>
       </c>
     </row>
     <row r="8">
@@ -553,28 +553,28 @@
         <v>0003</v>
       </c>
       <c r="D8" t="str">
-        <v>Zero Point Rounds</v>
+        <v>Devastating Blow</v>
       </c>
       <c r="E8" t="str">
-        <v>PRECISION</v>
+        <v>OFFENSE</v>
       </c>
       <c r="F8" t="str">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" t="str">
         <v>skill:70010002</v>
       </c>
       <c r="H8" t="str">
-        <v>damage:+12|weakPoint:+20%</v>
+        <v>weakPoint:+25</v>
       </c>
       <c r="I8" t="str">
-        <v>level:6</v>
+        <v>level:3</v>
       </c>
       <c r="J8" t="str">
-        <v>子弹穿透时获得额外伤害。</v>
+        <v>暴击伤害大幅提升</v>
       </c>
       <c r="K8" t="str">
-        <v>ui/assets/icons/skill/zero_point.png</v>
+        <v>ui/assets/icons/skill/devastating_blow.png</v>
       </c>
     </row>
     <row r="9">
@@ -582,34 +582,34 @@
         <v>70</v>
       </c>
       <c r="B9" t="str">
-        <v>02</v>
+        <v>01</v>
       </c>
       <c r="C9" t="str">
-        <v>0001</v>
+        <v>0004</v>
       </c>
       <c r="D9" t="str">
-        <v>Aether Resonance</v>
+        <v>Armor Piercing</v>
       </c>
       <c r="E9" t="str">
-        <v>AETHER</v>
+        <v>OFFENSE</v>
       </c>
       <c r="F9" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="str">
-        <v/>
+        <v>skill:70010001</v>
       </c>
       <c r="H9" t="str">
-        <v>beamDamage:+6|sanityDrain:-2</v>
+        <v>damage:+12|damageMultiplier:+8</v>
       </c>
       <c r="I9" t="str">
-        <v/>
+        <v>level:3</v>
       </c>
       <c r="J9" t="str">
-        <v>持续型武器效率提升。</v>
+        <v>穿甲弹药，额外伤害加成</v>
       </c>
       <c r="K9" t="str">
-        <v>ui/assets/icons/skill/aether_resonance.png</v>
+        <v>ui/assets/icons/skill/armor_piercing.png</v>
       </c>
     </row>
     <row r="10">
@@ -617,34 +617,34 @@
         <v>70</v>
       </c>
       <c r="B10" t="str">
-        <v>02</v>
+        <v>01</v>
       </c>
       <c r="C10" t="str">
-        <v>0002</v>
+        <v>0005</v>
       </c>
       <c r="D10" t="str">
-        <v>Choir Surge</v>
+        <v>Execute</v>
       </c>
       <c r="E10" t="str">
-        <v>AETHER</v>
+        <v>OFFENSE</v>
       </c>
       <c r="F10" t="str">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="str">
-        <v>skill:70020001</v>
+        <v>skill:70010003</v>
       </c>
       <c r="H10" t="str">
-        <v>beamRamp:+4/s|radius:+0.8</v>
+        <v>damage:+15|crit:+8</v>
       </c>
       <c r="I10" t="str">
-        <v>level:4</v>
+        <v>level:6</v>
       </c>
       <c r="J10" t="str">
-        <v>光束蓄力更快并扩大范围。</v>
+        <v>终结技：伤害与暴击双提升</v>
       </c>
       <c r="K10" t="str">
-        <v>ui/assets/icons/skill/choir_surge.png</v>
+        <v>ui/assets/icons/skill/execute.png</v>
       </c>
     </row>
     <row r="11">
@@ -652,16 +652,16 @@
         <v>70</v>
       </c>
       <c r="B11" t="str">
-        <v>03</v>
+        <v>02</v>
       </c>
       <c r="C11" t="str">
         <v>0001</v>
       </c>
       <c r="D11" t="str">
-        <v>Undertow Grasp</v>
+        <v>Rapid Fire</v>
       </c>
       <c r="E11" t="str">
-        <v>TIDES</v>
+        <v>SPEED</v>
       </c>
       <c r="F11" t="str">
         <v>1</v>
@@ -670,16 +670,16 @@
         <v/>
       </c>
       <c r="H11" t="str">
-        <v>pullStrength:+18|frostDamage:+10</v>
+        <v>fireRate:-12</v>
       </c>
       <c r="I11" t="str">
         <v/>
       </c>
       <c r="J11" t="str">
-        <v>潮汐技能增强牵引力。</v>
+        <v>射速提升12%</v>
       </c>
       <c r="K11" t="str">
-        <v>ui/assets/icons/skill/undertow.png</v>
+        <v>ui/assets/icons/skill/rapid_fire.png</v>
       </c>
     </row>
     <row r="12">
@@ -687,34 +687,34 @@
         <v>70</v>
       </c>
       <c r="B12" t="str">
-        <v>03</v>
+        <v>02</v>
       </c>
       <c r="C12" t="str">
         <v>0002</v>
       </c>
       <c r="D12" t="str">
-        <v>Riptide Collapse</v>
+        <v>Quick Reload</v>
       </c>
       <c r="E12" t="str">
-        <v>TIDES</v>
+        <v>SPEED</v>
       </c>
       <c r="F12" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="str">
-        <v>skill:70030001</v>
+        <v/>
       </c>
       <c r="H12" t="str">
-        <v>frostShatter:+22|radius:+1.2</v>
+        <v>reload:-15</v>
       </c>
       <c r="I12" t="str">
-        <v>level:5</v>
+        <v/>
       </c>
       <c r="J12" t="str">
-        <v>爆裂范围扩大并追加寒霜伤害。</v>
+        <v>装填速度提升15%</v>
       </c>
       <c r="K12" t="str">
-        <v>ui/assets/icons/skill/riptide_collapse.png</v>
+        <v>ui/assets/icons/skill/quick_reload.png</v>
       </c>
     </row>
     <row r="13">
@@ -722,34 +722,34 @@
         <v>70</v>
       </c>
       <c r="B13" t="str">
-        <v>04</v>
+        <v>02</v>
       </c>
       <c r="C13" t="str">
-        <v>0001</v>
+        <v>0003</v>
       </c>
       <c r="D13" t="str">
-        <v>Ward Bastion</v>
+        <v>Hair Trigger</v>
       </c>
       <c r="E13" t="str">
-        <v>WARD</v>
+        <v>SPEED</v>
       </c>
       <c r="F13" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" t="str">
-        <v/>
+        <v>skill:70020001</v>
       </c>
       <c r="H13" t="str">
-        <v>shield:+40|sanityRegen:+3</v>
+        <v>fireRate:-18</v>
       </c>
       <c r="I13" t="str">
-        <v/>
+        <v>level:3</v>
       </c>
       <c r="J13" t="str">
-        <v>短期内提高护盾与理智恢复。</v>
+        <v>射速进一步提升</v>
       </c>
       <c r="K13" t="str">
-        <v>ui/assets/icons/skill/ward_bastion.png</v>
+        <v>ui/assets/icons/skill/hair_trigger.png</v>
       </c>
     </row>
     <row r="14">
@@ -757,39 +757,669 @@
         <v>70</v>
       </c>
       <c r="B14" t="str">
-        <v>04</v>
+        <v>02</v>
       </c>
       <c r="C14" t="str">
-        <v>0002</v>
+        <v>0004</v>
       </c>
       <c r="D14" t="str">
-        <v>Seraphic Shell</v>
+        <v>Combat Reload</v>
       </c>
       <c r="E14" t="str">
-        <v>WARD</v>
+        <v>SPEED</v>
       </c>
       <c r="F14" t="str">
         <v>2</v>
       </c>
       <c r="G14" t="str">
+        <v>skill:70020002</v>
+      </c>
+      <c r="H14" t="str">
+        <v>reload:-22</v>
+      </c>
+      <c r="I14" t="str">
+        <v>level:3</v>
+      </c>
+      <c r="J14" t="str">
+        <v>战斗装填：极速换弹</v>
+      </c>
+      <c r="K14" t="str">
+        <v>ui/assets/icons/skill/combat_reload.png</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>70</v>
+      </c>
+      <c r="B15" t="str">
+        <v>02</v>
+      </c>
+      <c r="C15" t="str">
+        <v>0005</v>
+      </c>
+      <c r="D15" t="str">
+        <v>Frenzy</v>
+      </c>
+      <c r="E15" t="str">
+        <v>SPEED</v>
+      </c>
+      <c r="F15" t="str">
+        <v>3</v>
+      </c>
+      <c r="G15" t="str">
+        <v>skill:70020003|skill:70020004</v>
+      </c>
+      <c r="H15" t="str">
+        <v>fireRate:-25|reload:-25</v>
+      </c>
+      <c r="I15" t="str">
+        <v>level:6</v>
+      </c>
+      <c r="J15" t="str">
+        <v>狂暴：射速与装填同时极限提升</v>
+      </c>
+      <c r="K15" t="str">
+        <v>ui/assets/icons/skill/frenzy.png</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>70</v>
+      </c>
+      <c r="B16" t="str">
+        <v>03</v>
+      </c>
+      <c r="C16" t="str">
+        <v>0001</v>
+      </c>
+      <c r="D16" t="str">
+        <v>Steady Aim</v>
+      </c>
+      <c r="E16" t="str">
+        <v>PRECISION</v>
+      </c>
+      <c r="F16" t="str">
+        <v>1</v>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <v>stability:+12</v>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <v>减少弹道散布</v>
+      </c>
+      <c r="K16" t="str">
+        <v>ui/assets/icons/skill/steady_aim.png</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>70</v>
+      </c>
+      <c r="B17" t="str">
+        <v>03</v>
+      </c>
+      <c r="C17" t="str">
+        <v>0002</v>
+      </c>
+      <c r="D17" t="str">
+        <v>Eagle Eye</v>
+      </c>
+      <c r="E17" t="str">
+        <v>PRECISION</v>
+      </c>
+      <c r="F17" t="str">
+        <v>1</v>
+      </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <v>stability:+8|crit:+4</v>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <v>稳定与暴击提升</v>
+      </c>
+      <c r="K17" t="str">
+        <v>ui/assets/icons/skill/eagle_eye.png</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>70</v>
+      </c>
+      <c r="B18" t="str">
+        <v>03</v>
+      </c>
+      <c r="C18" t="str">
+        <v>0003</v>
+      </c>
+      <c r="D18" t="str">
+        <v>Marksman</v>
+      </c>
+      <c r="E18" t="str">
+        <v>PRECISION</v>
+      </c>
+      <c r="F18" t="str">
+        <v>2</v>
+      </c>
+      <c r="G18" t="str">
+        <v>skill:70030001</v>
+      </c>
+      <c r="H18" t="str">
+        <v>stability:+18|projectileSpeed:+10</v>
+      </c>
+      <c r="I18" t="str">
+        <v>level:3</v>
+      </c>
+      <c r="J18" t="str">
+        <v>神枪手：弹速与精准度提升</v>
+      </c>
+      <c r="K18" t="str">
+        <v>ui/assets/icons/skill/marksman.png</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>70</v>
+      </c>
+      <c r="B19" t="str">
+        <v>03</v>
+      </c>
+      <c r="C19" t="str">
+        <v>0004</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Sniper Focus</v>
+      </c>
+      <c r="E19" t="str">
+        <v>PRECISION</v>
+      </c>
+      <c r="F19" t="str">
+        <v>3</v>
+      </c>
+      <c r="G19" t="str">
+        <v>skill:70030003</v>
+      </c>
+      <c r="H19" t="str">
+        <v>stability:+25|crit:+10|weakPoint:+30</v>
+      </c>
+      <c r="I19" t="str">
+        <v>level:6</v>
+      </c>
+      <c r="J19" t="str">
+        <v>狙击手专注：极致精准与致命</v>
+      </c>
+      <c r="K19" t="str">
+        <v>ui/assets/icons/skill/sniper_focus.png</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>70</v>
+      </c>
+      <c r="B20" t="str">
+        <v>04</v>
+      </c>
+      <c r="C20" t="str">
+        <v>0001</v>
+      </c>
+      <c r="D20" t="str">
+        <v>Vitality</v>
+      </c>
+      <c r="E20" t="str">
+        <v>SURVIVAL</v>
+      </c>
+      <c r="F20" t="str">
+        <v>1</v>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <v>maxHp:+20</v>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <v>最大生命提升</v>
+      </c>
+      <c r="K20" t="str">
+        <v>ui/assets/icons/skill/vitality.png</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>70</v>
+      </c>
+      <c r="B21" t="str">
+        <v>04</v>
+      </c>
+      <c r="C21" t="str">
+        <v>0002</v>
+      </c>
+      <c r="D21" t="str">
+        <v>Shield Barrier</v>
+      </c>
+      <c r="E21" t="str">
+        <v>SURVIVAL</v>
+      </c>
+      <c r="F21" t="str">
+        <v>1</v>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <v>shield:+30</v>
+      </c>
+      <c r="I21" t="str">
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <v>获得护盾</v>
+      </c>
+      <c r="K21" t="str">
+        <v>ui/assets/icons/skill/shield_barrier.png</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>70</v>
+      </c>
+      <c r="B22" t="str">
+        <v>04</v>
+      </c>
+      <c r="C22" t="str">
+        <v>0003</v>
+      </c>
+      <c r="D22" t="str">
+        <v>Regeneration</v>
+      </c>
+      <c r="E22" t="str">
+        <v>SURVIVAL</v>
+      </c>
+      <c r="F22" t="str">
+        <v>2</v>
+      </c>
+      <c r="G22" t="str">
         <v>skill:70040001</v>
       </c>
-      <c r="H14" t="str">
-        <v>shield:+60|beamReflect:15%</v>
-      </c>
-      <c r="I14" t="str">
-        <v>level:4</v>
-      </c>
-      <c r="J14" t="str">
-        <v>护盾容量增加并反射部分激光。</v>
-      </c>
-      <c r="K14" t="str">
-        <v>ui/assets/icons/skill/seraphic_shell.png</v>
+      <c r="H22" t="str">
+        <v>hpRegen:+2</v>
+      </c>
+      <c r="I22" t="str">
+        <v>level:3</v>
+      </c>
+      <c r="J22" t="str">
+        <v>生命缓慢恢复</v>
+      </c>
+      <c r="K22" t="str">
+        <v>ui/assets/icons/skill/regeneration.png</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>70</v>
+      </c>
+      <c r="B23" t="str">
+        <v>04</v>
+      </c>
+      <c r="C23" t="str">
+        <v>0004</v>
+      </c>
+      <c r="D23" t="str">
+        <v>Reinforced Shield</v>
+      </c>
+      <c r="E23" t="str">
+        <v>SURVIVAL</v>
+      </c>
+      <c r="F23" t="str">
+        <v>2</v>
+      </c>
+      <c r="G23" t="str">
+        <v>skill:70040002</v>
+      </c>
+      <c r="H23" t="str">
+        <v>shield:+50|shieldRegen:+3</v>
+      </c>
+      <c r="I23" t="str">
+        <v>level:3</v>
+      </c>
+      <c r="J23" t="str">
+        <v>护盾强化并持续恢复</v>
+      </c>
+      <c r="K23" t="str">
+        <v>ui/assets/icons/skill/reinforced_shield.png</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>70</v>
+      </c>
+      <c r="B24" t="str">
+        <v>04</v>
+      </c>
+      <c r="C24" t="str">
+        <v>0005</v>
+      </c>
+      <c r="D24" t="str">
+        <v>Last Stand</v>
+      </c>
+      <c r="E24" t="str">
+        <v>SURVIVAL</v>
+      </c>
+      <c r="F24" t="str">
+        <v>3</v>
+      </c>
+      <c r="G24" t="str">
+        <v>skill:70040003|skill:70040004</v>
+      </c>
+      <c r="H24" t="str">
+        <v>maxHp:+40|hpRegen:+4|shield:+60</v>
+      </c>
+      <c r="I24" t="str">
+        <v>level:6</v>
+      </c>
+      <c r="J24" t="str">
+        <v>背水一战：大幅提升生存力</v>
+      </c>
+      <c r="K24" t="str">
+        <v>ui/assets/icons/skill/last_stand.png</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>70</v>
+      </c>
+      <c r="B25" t="str">
+        <v>05</v>
+      </c>
+      <c r="C25" t="str">
+        <v>0001</v>
+      </c>
+      <c r="D25" t="str">
+        <v>Swift Movement</v>
+      </c>
+      <c r="E25" t="str">
+        <v>MOBILITY</v>
+      </c>
+      <c r="F25" t="str">
+        <v>1</v>
+      </c>
+      <c r="G25" t="str">
+        <v/>
+      </c>
+      <c r="H25" t="str">
+        <v>moveSpeed:+8</v>
+      </c>
+      <c r="I25" t="str">
+        <v/>
+      </c>
+      <c r="J25" t="str">
+        <v>移动速度提升</v>
+      </c>
+      <c r="K25" t="str">
+        <v>ui/assets/icons/skill/swift_movement.png</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>70</v>
+      </c>
+      <c r="B26" t="str">
+        <v>05</v>
+      </c>
+      <c r="C26" t="str">
+        <v>0002</v>
+      </c>
+      <c r="D26" t="str">
+        <v>Agility</v>
+      </c>
+      <c r="E26" t="str">
+        <v>MOBILITY</v>
+      </c>
+      <c r="F26" t="str">
+        <v>1</v>
+      </c>
+      <c r="G26" t="str">
+        <v/>
+      </c>
+      <c r="H26" t="str">
+        <v>moveSpeed:+6|stability:+5</v>
+      </c>
+      <c r="I26" t="str">
+        <v/>
+      </c>
+      <c r="J26" t="str">
+        <v>灵活身法</v>
+      </c>
+      <c r="K26" t="str">
+        <v>ui/assets/icons/skill/agility.png</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>70</v>
+      </c>
+      <c r="B27" t="str">
+        <v>05</v>
+      </c>
+      <c r="C27" t="str">
+        <v>0003</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Sprint</v>
+      </c>
+      <c r="E27" t="str">
+        <v>MOBILITY</v>
+      </c>
+      <c r="F27" t="str">
+        <v>2</v>
+      </c>
+      <c r="G27" t="str">
+        <v>skill:70050001</v>
+      </c>
+      <c r="H27" t="str">
+        <v>moveSpeed:+12</v>
+      </c>
+      <c r="I27" t="str">
+        <v>level:3</v>
+      </c>
+      <c r="J27" t="str">
+        <v>冲刺：极速移动</v>
+      </c>
+      <c r="K27" t="str">
+        <v>ui/assets/icons/skill/sprint.png</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>70</v>
+      </c>
+      <c r="B28" t="str">
+        <v>05</v>
+      </c>
+      <c r="C28" t="str">
+        <v>0004</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Evasion Master</v>
+      </c>
+      <c r="E28" t="str">
+        <v>MOBILITY</v>
+      </c>
+      <c r="F28" t="str">
+        <v>3</v>
+      </c>
+      <c r="G28" t="str">
+        <v>skill:70050003</v>
+      </c>
+      <c r="H28" t="str">
+        <v>moveSpeed:+18|invulnTime:+0.3</v>
+      </c>
+      <c r="I28" t="str">
+        <v>level:6</v>
+      </c>
+      <c r="J28" t="str">
+        <v>闪避大师：移速提升并延长无敌时间</v>
+      </c>
+      <c r="K28" t="str">
+        <v>ui/assets/icons/skill/evasion_master.png</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>70</v>
+      </c>
+      <c r="B29" t="str">
+        <v>06</v>
+      </c>
+      <c r="C29" t="str">
+        <v>0001</v>
+      </c>
+      <c r="D29" t="str">
+        <v>Fortune</v>
+      </c>
+      <c r="E29" t="str">
+        <v>UTILITY</v>
+      </c>
+      <c r="F29" t="str">
+        <v>1</v>
+      </c>
+      <c r="G29" t="str">
+        <v/>
+      </c>
+      <c r="H29" t="str">
+        <v>luckBonus:+10</v>
+      </c>
+      <c r="I29" t="str">
+        <v/>
+      </c>
+      <c r="J29" t="str">
+        <v>幸运加成，提升掉落</v>
+      </c>
+      <c r="K29" t="str">
+        <v>ui/assets/icons/skill/fortune.png</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>70</v>
+      </c>
+      <c r="B30" t="str">
+        <v>06</v>
+      </c>
+      <c r="C30" t="str">
+        <v>0002</v>
+      </c>
+      <c r="D30" t="str">
+        <v>Ammo Efficiency</v>
+      </c>
+      <c r="E30" t="str">
+        <v>UTILITY</v>
+      </c>
+      <c r="F30" t="str">
+        <v>1</v>
+      </c>
+      <c r="G30" t="str">
+        <v/>
+      </c>
+      <c r="H30" t="str">
+        <v>ammoEfficiency:+20</v>
+      </c>
+      <c r="I30" t="str">
+        <v/>
+      </c>
+      <c r="J30" t="str">
+        <v>弹药使用效率提升</v>
+      </c>
+      <c r="K30" t="str">
+        <v>ui/assets/icons/skill/ammo_efficiency.png</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>70</v>
+      </c>
+      <c r="B31" t="str">
+        <v>06</v>
+      </c>
+      <c r="C31" t="str">
+        <v>0003</v>
+      </c>
+      <c r="D31" t="str">
+        <v>Sanity Anchor</v>
+      </c>
+      <c r="E31" t="str">
+        <v>UTILITY</v>
+      </c>
+      <c r="F31" t="str">
+        <v>2</v>
+      </c>
+      <c r="G31" t="str">
+        <v>skill:70060002</v>
+      </c>
+      <c r="H31" t="str">
+        <v>sanityRegen:+4</v>
+      </c>
+      <c r="I31" t="str">
+        <v>level:3</v>
+      </c>
+      <c r="J31" t="str">
+        <v>理智恢复速度提升</v>
+      </c>
+      <c r="K31" t="str">
+        <v>ui/assets/icons/skill/sanity_anchor.png</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>70</v>
+      </c>
+      <c r="B32" t="str">
+        <v>06</v>
+      </c>
+      <c r="C32" t="str">
+        <v>0004</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Scavenger</v>
+      </c>
+      <c r="E32" t="str">
+        <v>UTILITY</v>
+      </c>
+      <c r="F32" t="str">
+        <v>2</v>
+      </c>
+      <c r="G32" t="str">
+        <v>skill:70060001</v>
+      </c>
+      <c r="H32" t="str">
+        <v>luckBonus:+20|xpBonus:+15</v>
+      </c>
+      <c r="I32" t="str">
+        <v>level:3</v>
+      </c>
+      <c r="J32" t="str">
+        <v>拾荒者：掉落与经验提升</v>
+      </c>
+      <c r="K32" t="str">
+        <v>ui/assets/icons/skill/scavenger.png</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A4:K14"/>
+    <ignoredError numberStoredAsText="1" sqref="A4:K32"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/example/game_06_abyssal_nightfall/skill_tree.xlsx
+++ b/example/game_06_abyssal_nightfall/skill_tree.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:K14"/>
+  <dimension ref="A4:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -483,10 +483,10 @@
         <v>0001</v>
       </c>
       <c r="D6" t="str">
-        <v>聚焦锚点</v>
+        <v>裂变弹匣</v>
       </c>
       <c r="E6" t="str">
-        <v>精准</v>
+        <v>弹道</v>
       </c>
       <c r="F6" t="str">
         <v>1</v>
@@ -495,13 +495,13 @@
         <v/>
       </c>
       <c r="H6" t="str">
-        <v>暴击:+5|稳定:+8</v>
+        <v>split:+1|splitAngle:+12|damage:+6</v>
       </c>
       <c r="I6" t="str">
         <v>level:3</v>
       </c>
       <c r="J6" t="str">
-        <v>提高命中稳定，解锁精准分支。</v>
+        <v>将弹道裂变为额外子弹，基础火力提升。</v>
       </c>
       <c r="K6" t="str">
         <v>icons/skill/focal_anchor.png</v>
@@ -518,10 +518,10 @@
         <v>0002</v>
       </c>
       <c r="D7" t="str">
-        <v>极速虹吸</v>
+        <v>轨迹稳流</v>
       </c>
       <c r="E7" t="str">
-        <v>精准</v>
+        <v>弹道</v>
       </c>
       <c r="F7" t="str">
         <v>2</v>
@@ -530,13 +530,13 @@
         <v>skill:70010001</v>
       </c>
       <c r="H7" t="str">
-        <v>装填:-6%|暴击:+4</v>
+        <v>stability:+14|projectileSize:+18|projectileSpeed:+8</v>
       </c>
       <c r="I7" t="str">
         <v>level:6</v>
       </c>
       <c r="J7" t="str">
-        <v>装填更迅速并提升暴击。</v>
+        <v>导流装置压制散布，并扩大弹道厚度。</v>
       </c>
       <c r="K7" t="str">
         <v>icons/skill/rapid_siphon.png</v>
@@ -553,10 +553,10 @@
         <v>0003</v>
       </c>
       <c r="D8" t="str">
-        <v>零点穿透</v>
+        <v>深域贯穿</v>
       </c>
       <c r="E8" t="str">
-        <v>精准</v>
+        <v>弹道</v>
       </c>
       <c r="F8" t="str">
         <v>3</v>
@@ -565,13 +565,13 @@
         <v>skill:70010002</v>
       </c>
       <c r="H8" t="str">
-        <v>伤害:+12|弱点:+20%</v>
+        <v>pierce:+2|crit:+5|damage:+10</v>
       </c>
       <c r="I8" t="str">
         <v>level:9</v>
       </c>
       <c r="J8" t="str">
-        <v>子弹穿透时获得额外伤害。</v>
+        <v>强化穿甲结构并提升暴击输出。</v>
       </c>
       <c r="K8" t="str">
         <v>icons/skill/zero_point.png</v>
@@ -588,10 +588,10 @@
         <v>0001</v>
       </c>
       <c r="D9" t="str">
-        <v>以太共振</v>
+        <v>棱镜导光</v>
       </c>
       <c r="E9" t="str">
-        <v>以太</v>
+        <v>能量</v>
       </c>
       <c r="F9" t="str">
         <v>1</v>
@@ -600,13 +600,13 @@
         <v/>
       </c>
       <c r="H9" t="str">
-        <v>光束伤害:+6|理智消耗:-2</v>
+        <v>damage:+6|sanityDrain:-6|projectileSize:+18</v>
       </c>
       <c r="I9" t="str">
-        <v>level:4</v>
+        <v>level:4|weaponAttack:BEAM</v>
       </c>
       <c r="J9" t="str">
-        <v>持续型武器效率提升。</v>
+        <v>棱镜束缚能量消耗，同时扩大光束宽度。</v>
       </c>
       <c r="K9" t="str">
         <v>icons/skill/aether_resonance.png</v>
@@ -623,10 +623,10 @@
         <v>0002</v>
       </c>
       <c r="D10" t="str">
-        <v>合唱激流</v>
+        <v>谐振折叠</v>
       </c>
       <c r="E10" t="str">
-        <v>以太</v>
+        <v>能量</v>
       </c>
       <c r="F10" t="str">
         <v>2</v>
@@ -635,13 +635,13 @@
         <v>skill:70020001</v>
       </c>
       <c r="H10" t="str">
-        <v>蓄力:+4/s|半径:+0.8</v>
+        <v>damageMultiplier:+8|projectileSpeed:+14|stability:+8</v>
       </c>
       <c r="I10" t="str">
-        <v>level:7</v>
+        <v>level:7|weaponAttack:BEAM</v>
       </c>
       <c r="J10" t="str">
-        <v>光束蓄力更快并扩大范围。</v>
+        <v>折叠振镜提高能量聚焦与射速。</v>
       </c>
       <c r="K10" t="str">
         <v>icons/skill/choir_surge.png</v>
@@ -652,34 +652,34 @@
         <v>70</v>
       </c>
       <c r="B11" t="str">
-        <v>03</v>
+        <v>02</v>
       </c>
       <c r="C11" t="str">
-        <v>0001</v>
+        <v>0003</v>
       </c>
       <c r="D11" t="str">
-        <v>回涌之握</v>
+        <v>相干放射</v>
       </c>
       <c r="E11" t="str">
-        <v>潮汐</v>
+        <v>能量</v>
       </c>
       <c r="F11" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" t="str">
-        <v/>
+        <v>skill:70020002</v>
       </c>
       <c r="H11" t="str">
-        <v>牵引:+18|霜寒伤害:+10</v>
+        <v>ricochet:+1|crit:+6|damage:+12</v>
       </c>
       <c r="I11" t="str">
-        <v>level:5</v>
+        <v>level:10|weaponAttack:BEAM</v>
       </c>
       <c r="J11" t="str">
-        <v>潮汐技能增强牵引力。</v>
+        <v>相干腔反复震荡，使光束可在敌间折射。</v>
       </c>
       <c r="K11" t="str">
-        <v>icons/skill/undertow.png</v>
+        <v>icons/skill/zero_point.png</v>
       </c>
     </row>
     <row r="12">
@@ -690,31 +690,31 @@
         <v>03</v>
       </c>
       <c r="C12" t="str">
-        <v>0002</v>
+        <v>0001</v>
       </c>
       <c r="D12" t="str">
-        <v>裂潮坠落</v>
+        <v>相位壁垒</v>
       </c>
       <c r="E12" t="str">
-        <v>潮汐</v>
+        <v>护卫</v>
       </c>
       <c r="F12" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="str">
-        <v>skill:70030001</v>
+        <v/>
       </c>
       <c r="H12" t="str">
-        <v>霜裂:+22|范围:+1.2</v>
+        <v>shield:+60|contactResist:+25|sanityRegen:+3</v>
       </c>
       <c r="I12" t="str">
-        <v>level:8</v>
+        <v>level:4</v>
       </c>
       <c r="J12" t="str">
-        <v>爆裂范围扩大并追加寒霜伤害。</v>
+        <v>展开相位护壁，降低接触伤害并补充理智。</v>
       </c>
       <c r="K12" t="str">
-        <v>icons/skill/riptide_collapse.png</v>
+        <v>icons/skill/ward_bastion.png</v>
       </c>
     </row>
     <row r="13">
@@ -722,34 +722,34 @@
         <v>70</v>
       </c>
       <c r="B13" t="str">
-        <v>04</v>
+        <v>03</v>
       </c>
       <c r="C13" t="str">
-        <v>0001</v>
+        <v>0002</v>
       </c>
       <c r="D13" t="str">
-        <v>护域壁垒</v>
+        <v>护盾崩击</v>
       </c>
       <c r="E13" t="str">
-        <v>守御</v>
+        <v>护卫</v>
       </c>
       <c r="F13" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" t="str">
-        <v/>
+        <v>skill:70030001</v>
       </c>
       <c r="H13" t="str">
-        <v>护盾:+40|理智恢复:+3</v>
+        <v>meleeDamage:+70|meleeRadius:+20|meleeInterval:-0.5</v>
       </c>
       <c r="I13" t="str">
-        <v>level:4</v>
+        <v>level:7</v>
       </c>
       <c r="J13" t="str">
-        <v>短期内提高护盾与理智恢复。</v>
+        <v>护盾冲击形成短距爆发，持续清理近身威胁。</v>
       </c>
       <c r="K13" t="str">
-        <v>icons/skill/ward_bastion.png</v>
+        <v>icons/skill/seraphic_shell.png</v>
       </c>
     </row>
     <row r="14">
@@ -757,39 +757,144 @@
         <v>70</v>
       </c>
       <c r="B14" t="str">
+        <v>03</v>
+      </c>
+      <c r="C14" t="str">
+        <v>0003</v>
+      </c>
+      <c r="D14" t="str">
+        <v>寂光回响</v>
+      </c>
+      <c r="E14" t="str">
+        <v>护卫</v>
+      </c>
+      <c r="F14" t="str">
+        <v>3</v>
+      </c>
+      <c r="G14" t="str">
+        <v>skill:70030002</v>
+      </c>
+      <c r="H14" t="str">
+        <v>beamReflect:20%|shieldRegen:+16|invulnTime:+0.4</v>
+      </c>
+      <c r="I14" t="str">
+        <v>level:10</v>
+      </c>
+      <c r="J14" t="str">
+        <v>护盾折射寂光，可短暂反弹能量。</v>
+      </c>
+      <c r="K14" t="str">
+        <v>icons/skill/ward_bastion.png</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>70</v>
+      </c>
+      <c r="B15" t="str">
         <v>04</v>
       </c>
-      <c r="C14" t="str">
+      <c r="C15" t="str">
+        <v>0001</v>
+      </c>
+      <c r="D15" t="str">
+        <v>术式镀层</v>
+      </c>
+      <c r="E15" t="str">
+        <v>工坊</v>
+      </c>
+      <c r="F15" t="str">
+        <v>1</v>
+      </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <v>projectileSize:+24|elementSlow:+18|elementSlowDuration:+1.4</v>
+      </c>
+      <c r="I15" t="str">
+        <v>level:5</v>
+      </c>
+      <c r="J15" t="str">
+        <v>在弹体上刻蚀术式，对命中目标施加霜蚀减速。</v>
+      </c>
+      <c r="K15" t="str">
+        <v>icons/skill/undertow.png</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>70</v>
+      </c>
+      <c r="B16" t="str">
+        <v>04</v>
+      </c>
+      <c r="C16" t="str">
         <v>0002</v>
       </c>
-      <c r="D14" t="str">
-        <v>炽天护壳</v>
-      </c>
-      <c r="E14" t="str">
-        <v>守御</v>
-      </c>
-      <c r="F14" t="str">
+      <c r="D16" t="str">
+        <v>弹道精铸</v>
+      </c>
+      <c r="E16" t="str">
+        <v>工坊</v>
+      </c>
+      <c r="F16" t="str">
         <v>2</v>
       </c>
-      <c r="G14" t="str">
+      <c r="G16" t="str">
         <v>skill:70040001</v>
       </c>
-      <c r="H14" t="str">
-        <v>护盾:+60|反射:15%</v>
-      </c>
-      <c r="I14" t="str">
+      <c r="H16" t="str">
+        <v>split:+1|splitAngle:+4|pierce:+1</v>
+      </c>
+      <c r="I16" t="str">
         <v>level:8</v>
       </c>
-      <c r="J14" t="str">
-        <v>护盾容量增加并反射部分激光。</v>
-      </c>
-      <c r="K14" t="str">
-        <v>icons/skill/seraphic_shell.png</v>
+      <c r="J16" t="str">
+        <v>精铸枪管令术弹再次分裂并保持贯穿。</v>
+      </c>
+      <c r="K16" t="str">
+        <v>icons/skill/riptide_collapse.png</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>70</v>
+      </c>
+      <c r="B17" t="str">
+        <v>04</v>
+      </c>
+      <c r="C17" t="str">
+        <v>0003</v>
+      </c>
+      <c r="D17" t="str">
+        <v>秘火迸流</v>
+      </c>
+      <c r="E17" t="str">
+        <v>工坊</v>
+      </c>
+      <c r="F17" t="str">
+        <v>3</v>
+      </c>
+      <c r="G17" t="str">
+        <v>skill:70040002</v>
+      </c>
+      <c r="H17" t="str">
+        <v>damageMultiplier:+12|luckBonus:+12|projectileSpeed:+16</v>
+      </c>
+      <c r="I17" t="str">
+        <v>level:11</v>
+      </c>
+      <c r="J17" t="str">
+        <v>秘火符文强化弹速与掉落运势。</v>
+      </c>
+      <c r="K17" t="str">
+        <v>icons/skill/choir_surge.png</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A4:K14"/>
+    <ignoredError numberStoredAsText="1" sqref="A4:K17"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/example/game_06_abyssal_nightfall/skill_tree.xlsx
+++ b/example/game_06_abyssal_nightfall/skill_tree.xlsx
@@ -495,16 +495,16 @@
         <v/>
       </c>
       <c r="H6" t="str">
-        <v>split:+1|splitAngle:+12|damage:+6</v>
+        <v>multiShot:2|damage:+6</v>
       </c>
       <c r="I6" t="str">
         <v>level:3</v>
       </c>
       <c r="J6" t="str">
-        <v>将弹道裂变为额外子弹，基础火力提升。</v>
+        <v>触发时连续射出两轮弹幕。</v>
       </c>
       <c r="K6" t="str">
-        <v>icons/skill/focal_anchor.png</v>
+        <v>icons/skill/ballistic-tier1.svg</v>
       </c>
     </row>
     <row r="7">
@@ -530,16 +530,16 @@
         <v>skill:70010001</v>
       </c>
       <c r="H7" t="str">
-        <v>stability:+14|projectileSize:+18|projectileSpeed:+8</v>
+        <v>multiShot:3|stability:+12|projectileSize:+12|multiShotAngle:4</v>
       </c>
       <c r="I7" t="str">
         <v>level:6</v>
       </c>
       <c r="J7" t="str">
-        <v>导流装置压制散布，并扩大弹道厚度。</v>
+        <v>连续三轮射击并稳定弹道。</v>
       </c>
       <c r="K7" t="str">
-        <v>icons/skill/rapid_siphon.png</v>
+        <v>icons/skill/ballistic-tier2.svg</v>
       </c>
     </row>
     <row r="8">
@@ -565,16 +565,16 @@
         <v>skill:70010002</v>
       </c>
       <c r="H8" t="str">
-        <v>pierce:+2|crit:+5|damage:+10</v>
+        <v>multiShot:4|pierce:+1|ricochet:+1</v>
       </c>
       <c r="I8" t="str">
         <v>level:9</v>
       </c>
       <c r="J8" t="str">
-        <v>强化穿甲结构并提升暴击输出。</v>
+        <v>连续四轮射击并令子弹贯穿弹射。</v>
       </c>
       <c r="K8" t="str">
-        <v>icons/skill/zero_point.png</v>
+        <v>icons/skill/ballistic-tier3.svg</v>
       </c>
     </row>
     <row r="9">
@@ -609,7 +609,7 @@
         <v>棱镜束缚能量消耗，同时扩大光束宽度。</v>
       </c>
       <c r="K9" t="str">
-        <v>icons/skill/aether_resonance.png</v>
+        <v>icons/skill/energy-tier1.svg</v>
       </c>
     </row>
     <row r="10">
@@ -644,7 +644,7 @@
         <v>折叠振镜提高能量聚焦与射速。</v>
       </c>
       <c r="K10" t="str">
-        <v>icons/skill/choir_surge.png</v>
+        <v>icons/skill/energy-tier2.svg</v>
       </c>
     </row>
     <row r="11">
@@ -679,7 +679,7 @@
         <v>相干腔反复震荡，使光束可在敌间折射。</v>
       </c>
       <c r="K11" t="str">
-        <v>icons/skill/zero_point.png</v>
+        <v>icons/skill/energy-tier3.svg</v>
       </c>
     </row>
     <row r="12">
@@ -714,7 +714,7 @@
         <v>展开相位护壁，降低接触伤害并补充理智。</v>
       </c>
       <c r="K12" t="str">
-        <v>icons/skill/ward_bastion.png</v>
+        <v>icons/skill/guardian-tier1.svg</v>
       </c>
     </row>
     <row r="13">
@@ -749,7 +749,7 @@
         <v>护盾冲击形成短距爆发，持续清理近身威胁。</v>
       </c>
       <c r="K13" t="str">
-        <v>icons/skill/seraphic_shell.png</v>
+        <v>icons/skill/guardian-tier2.svg</v>
       </c>
     </row>
     <row r="14">
@@ -784,7 +784,7 @@
         <v>护盾折射寂光，可短暂反弹能量。</v>
       </c>
       <c r="K14" t="str">
-        <v>icons/skill/ward_bastion.png</v>
+        <v>icons/skill/guardian-tier3.svg</v>
       </c>
     </row>
     <row r="15">
@@ -810,7 +810,7 @@
         <v/>
       </c>
       <c r="H15" t="str">
-        <v>projectileSize:+24|elementSlow:+18|elementSlowDuration:+1.4</v>
+        <v>projectileSize:+24|elementSlow:+18|elementSlowDuration:+1.2</v>
       </c>
       <c r="I15" t="str">
         <v>level:5</v>
@@ -819,7 +819,7 @@
         <v>在弹体上刻蚀术式，对命中目标施加霜蚀减速。</v>
       </c>
       <c r="K15" t="str">
-        <v>icons/skill/undertow.png</v>
+        <v>icons/skill/workshop-tier1.svg</v>
       </c>
     </row>
     <row r="16">
@@ -854,7 +854,7 @@
         <v>精铸枪管令术弹再次分裂并保持贯穿。</v>
       </c>
       <c r="K16" t="str">
-        <v>icons/skill/riptide_collapse.png</v>
+        <v>icons/skill/workshop-tier2.svg</v>
       </c>
     </row>
     <row r="17">
@@ -889,7 +889,7 @@
         <v>秘火符文强化弹速与掉落运势。</v>
       </c>
       <c r="K17" t="str">
-        <v>icons/skill/choir_surge.png</v>
+        <v>icons/skill/workshop-tier3.svg</v>
       </c>
     </row>
   </sheetData>
